--- a/fsdata/타이거일렉.xlsx
+++ b/fsdata/타이거일렉.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A537D2-CF62-4AD4-AD65-D073C7369218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11655" yWindow="1380" windowWidth="16710" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
     <sheet name="Data_cf" sheetId="7" r:id="rId7"/>
     <sheet name="Labels_cf" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="334">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1020,17 +1026,21 @@
   </si>
   <si>
     <t>dartCashAndCashEquivalentsAtEndOfPeriodCf</t>
+  </si>
+  <si>
+    <t>영업활동으로부터 창출된 현금흐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1038,8 +1048,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1078,22 +1095,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1135,7 +1163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,9 +1195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,6 +1247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1376,24 +1440,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1437,7 +1501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1469,7 +1533,7 @@
         <v>12549893841</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1504,7 +1568,7 @@
         <v>5983892736</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1539,7 +1603,7 @@
         <v>3962965456</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1574,7 +1638,7 @@
         <v>73146746</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1609,7 +1673,7 @@
         <v>2499654951</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1641,7 +1705,7 @@
         <v>52670</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1676,7 +1740,7 @@
         <v>30233952</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1708,7 +1772,7 @@
         <v>18809752644</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1740,7 +1804,7 @@
         <v>23291652</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1775,7 +1839,7 @@
         <v>278254500</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1810,7 +1874,7 @@
         <v>17055654022</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1845,7 +1909,7 @@
         <v>538473768</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1880,7 +1944,7 @@
         <v>914078702</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1912,7 +1976,7 @@
         <v>31359646485</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1944,7 +2008,7 @@
         <v>6863889766</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1979,7 +2043,7 @@
         <v>731076358</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2014,7 +2078,7 @@
         <v>4613571752</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2049,7 +2113,7 @@
         <v>1150346980</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2084,7 +2148,7 @@
         <v>343762350</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2119,7 +2183,7 @@
         <v>25132326</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2151,7 +2215,7 @@
         <v>7821777514</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2186,7 +2250,7 @@
         <v>6635950457</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2221,7 +2285,7 @@
         <v>110000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2256,7 +2320,7 @@
         <v>1075827057</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2288,7 +2352,7 @@
         <v>14685667280</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2320,7 +2384,7 @@
         <v>16673979205</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2352,7 +2416,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2381,7 +2445,7 @@
         <v>382303041</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2410,7 +2474,7 @@
         <v>-13079254</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2442,7 +2506,7 @@
         <v>14304755418</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2465,7 +2529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2497,7 +2561,7 @@
         <v>16673979205</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2530,19 +2594,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>112</v>
@@ -2557,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2572,7 +2637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2589,7 +2654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2606,7 +2671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2623,7 +2688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2640,7 +2705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2657,7 +2722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2674,7 +2739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2691,7 +2756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2708,7 +2773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2725,7 +2790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2742,7 +2807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2759,7 +2824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2776,7 +2841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2793,7 +2858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2810,7 +2875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2827,7 +2892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2844,7 +2909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2861,7 +2926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2878,7 +2943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2895,7 +2960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2912,7 +2977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2929,7 +2994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2946,7 +3011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2963,7 +3028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2980,7 +3045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2997,7 +3062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3014,7 +3079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -3031,7 +3096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -3048,7 +3113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -3065,7 +3130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -3082,7 +3147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -3099,7 +3164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -3116,7 +3181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -3134,28 +3199,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
@@ -3166,7 +3232,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3196,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3225,7 +3291,7 @@
         <v>21813706509</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3254,7 +3320,7 @@
         <v>18088346337</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3283,7 +3349,7 @@
         <v>3725360172</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3312,7 +3378,7 @@
         <v>1759801847</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3341,7 +3407,7 @@
         <v>1965558325</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3370,7 +3436,7 @@
         <v>63552353</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3399,7 +3465,7 @@
         <v>33823328</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3428,7 +3494,7 @@
         <v>1017048241</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3457,7 +3523,7 @@
         <v>343917132</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3486,7 +3552,7 @@
         <v>2668418459</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3515,7 +3581,7 @@
         <v>578058911</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3544,7 +3610,7 @@
         <v>2090359548</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3576,7 +3642,7 @@
         <v>2090359548</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3599,7 +3665,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3631,7 +3697,7 @@
         <v>5226</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3667,19 +3733,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>112</v>
@@ -3694,7 +3761,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3709,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3726,7 +3793,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3743,7 +3810,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3760,7 +3827,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3777,7 +3844,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3794,7 +3861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3811,7 +3878,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3828,7 +3895,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3845,7 +3912,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3862,7 +3929,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3879,7 +3946,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3896,7 +3963,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3913,7 +3980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3930,7 +3997,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3947,7 +4014,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3964,7 +4031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3982,29 +4049,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>141</v>
       </c>
@@ -4015,7 +4083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4048,7 +4116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4077,7 +4145,7 @@
         <v>2090359548</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4106,7 +4174,7 @@
         <v>104265094</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4138,7 +4206,7 @@
         <v>103570886</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4173,7 +4241,7 @@
         <v>103570886</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4205,7 +4273,7 @@
         <v>694208</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4240,7 +4308,7 @@
         <v>694208</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4269,7 +4337,7 @@
         <v>2194624642</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4301,7 +4369,7 @@
         <v>2194624642</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4328,19 +4396,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>112</v>
@@ -4355,7 +4424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4370,7 +4439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4387,7 +4456,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4404,7 +4473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4421,7 +4490,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4438,7 +4507,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4455,7 +4524,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4472,7 +4541,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4489,7 +4558,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4506,7 +4575,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4524,28 +4593,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
@@ -4556,7 +4631,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4586,7 +4661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4615,7 +4690,7 @@
         <v>1942627062</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4623,7 +4698,7 @@
         <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
         <v>292</v>
@@ -4647,7 +4722,7 @@
         <v>2979083594</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4679,7 +4754,7 @@
         <v>94864486</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4711,7 +4786,7 @@
         <v>203218634</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4743,7 +4818,7 @@
         <v>928102384</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4772,7 +4847,7 @@
         <v>-853316671</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4798,7 +4873,7 @@
         <v>26543013</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4830,7 +4905,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4862,7 +4937,7 @@
         <v>59460455</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4888,7 +4963,7 @@
         <v>193955353</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4917,7 +4992,7 @@
         <v>80035500</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4949,7 +5024,7 @@
         <v>1032446979</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4978,7 +5053,7 @@
         <v>679549600</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5004,7 +5079,7 @@
         <v>9183064790</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5030,7 +5105,7 @@
         <v>3478005600</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5056,7 +5131,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5088,7 +5163,7 @@
         <v>3798456000</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5117,7 +5192,7 @@
         <v>1768859991</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5146,7 +5221,7 @@
         <v>-1219533</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5175,7 +5250,7 @@
         <v>1767640458</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5204,7 +5279,7 @@
         <v>4216252278</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5237,19 +5312,21 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>112</v>
@@ -5264,7 +5341,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -5279,7 +5356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -5296,7 +5373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5313,7 +5390,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5330,7 +5407,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5347,7 +5424,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5364,7 +5441,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5381,7 +5458,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5398,7 +5475,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5415,7 +5492,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5432,7 +5509,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5449,7 +5526,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5466,7 +5543,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5483,7 +5560,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5500,7 +5577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5517,7 +5594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5534,7 +5611,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5551,7 +5628,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5568,7 +5645,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5585,7 +5662,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5602,7 +5679,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5619,7 +5696,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5636,7 +5713,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5654,6 +5731,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>